--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2918.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2918.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>-1</v>
+        <v>1.305135011672974</v>
       </c>
       <c r="B1">
-        <v>-1</v>
+        <v>1.860609531402588</v>
       </c>
       <c r="C1">
-        <v>-1</v>
+        <v>2.641044855117798</v>
       </c>
       <c r="D1">
-        <v>-1</v>
+        <v>4.885111808776855</v>
       </c>
       <c r="E1">
-        <v>-1</v>
+        <v>1.161347508430481</v>
       </c>
     </row>
   </sheetData>
